--- a/ms/Secondary model output 30-4-20.xlsx
+++ b/ms/Secondary model output 30-4-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0CB390-B385-A445-97A2-D43979A27DF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A3F491-ACB6-EE42-A8CC-1A127293BC34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="460" windowWidth="38300" windowHeight="19900" activeTab="1" xr2:uid="{CEA959A6-D841-5347-BF8F-13749A5754E5}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="38300" windowHeight="19860" xr2:uid="{CEA959A6-D841-5347-BF8F-13749A5754E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Secondary mods 1 - Age" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="221">
   <si>
     <t>Random Effects Multilevel Models - Personality traits, taxonomic group and age (categorical mod, no interaction term)</t>
   </si>
@@ -345,9 +345,6 @@
     <t>-0.53, 0.30</t>
   </si>
   <si>
-    <t>Random Effects Multilevel Models - Personality traits, taxonomic group and study population (categorical mod, no interaction term)</t>
-  </si>
-  <si>
     <t>Secondary model to see if study animal population moderates sex differences in personalities (wild vs lab)</t>
   </si>
   <si>
@@ -447,9 +444,6 @@
     <t>-0.16, 0.25</t>
   </si>
   <si>
-    <t>Random Effects Multilevel Models - Personality traits, taxonomic group and study environment (categorical mod, no interaction term)</t>
-  </si>
-  <si>
     <t>Secondary model to see if the environment under which studies were conducted moderates sex differences in personalities (field vs lab)</t>
   </si>
   <si>
@@ -543,9 +537,6 @@
     <t>-0.07, 0.13</t>
   </si>
   <si>
-    <t>Random Effects Multilevel Models - Personality traits, taxonomic group and study type (categorical mod, no interaction term)</t>
-  </si>
-  <si>
     <t>Secondary model to see if the type of study conducted (observation or manipulation) moderates sex differences in personalities</t>
   </si>
   <si>
@@ -607,6 +598,99 @@
   </si>
   <si>
     <t>*doesn't have any observational studies</t>
+  </si>
+  <si>
+    <t>Random Effects Multilevel Models - Taxonomic group and age (categorical mod, no interaction term)</t>
+  </si>
+  <si>
+    <t>Random Effects Multilevel Models - Taxonomic group and study population (categorical mod, no interaction term)</t>
+  </si>
+  <si>
+    <t>Random Effects Multilevel Models - Taxonomic group and study environment (categorical mod, no interaction term)</t>
+  </si>
+  <si>
+    <t>Random Effects Multilevel Models - Taxonomic group and study type (categorical mod, no interaction term)</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Juvenile</t>
+  </si>
+  <si>
+    <t>-0.32, 0.16</t>
+  </si>
+  <si>
+    <t>-0.41, 0.13</t>
+  </si>
+  <si>
+    <t>p=0.67</t>
+  </si>
+  <si>
+    <t>-0.35, 0.63</t>
+  </si>
+  <si>
+    <t>p=0.37</t>
+  </si>
+  <si>
+    <t>-0.13, 0.59</t>
+  </si>
+  <si>
+    <t>p=0.50</t>
+  </si>
+  <si>
+    <t>-0.26, 0.48</t>
+  </si>
+  <si>
+    <t>-0.39, 0.40</t>
+  </si>
+  <si>
+    <t>p=0.0001</t>
+  </si>
+  <si>
+    <t>p=0.83</t>
+  </si>
+  <si>
+    <t>-0.13, 0.24</t>
+  </si>
+  <si>
+    <t>-0.62, 0.66</t>
+  </si>
+  <si>
+    <t>p=0.71</t>
+  </si>
+  <si>
+    <t>-0.66, 0.36</t>
+  </si>
+  <si>
+    <t>-0.75, 0.33</t>
+  </si>
+  <si>
+    <t>-0.08, 0.04</t>
+  </si>
+  <si>
+    <t>-0.55, 0.31</t>
+  </si>
+  <si>
+    <t>p=0.5</t>
+  </si>
+  <si>
+    <t>-0.12, 0.05</t>
+  </si>
+  <si>
+    <t>-0.32, 0.10</t>
+  </si>
+  <si>
+    <t>p=0.40</t>
+  </si>
+  <si>
+    <t>-0.16, 0.33</t>
+  </si>
+  <si>
+    <t>-0.26, 0.26</t>
+  </si>
+  <si>
+    <t>-0.41, 0.38</t>
   </si>
 </sst>
 </file>
@@ -1076,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345FC792-B22C-5445-AAC6-18CE35CE0157}">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1093,7 +1177,7 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -1108,9 +1192,7 @@
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1186,7 +1268,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>2637.43</v>
+        <v>2765.57</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1195,7 +1277,7 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>1785.25</v>
+        <v>1821.31</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -1204,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="R7">
-        <v>2019.12</v>
+        <v>2055.29</v>
       </c>
       <c r="S7" t="s">
         <v>11</v>
@@ -1213,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="Z7">
-        <v>2208.5700000000002</v>
+        <v>2254.6</v>
       </c>
       <c r="AA7" t="s">
         <v>11</v>
@@ -1222,57 +1304,57 @@
         <v>10</v>
       </c>
       <c r="AH7">
-        <v>138.6</v>
+        <v>151.03</v>
       </c>
       <c r="AI7" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5">
-        <v>2.41</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
+      <c r="B8" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="6">
-        <v>1.41</v>
+        <v>0.4</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="5">
-        <v>2.94</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>16</v>
+      <c r="R8">
+        <v>0.99</v>
+      </c>
+      <c r="S8" t="s">
+        <v>200</v>
       </c>
       <c r="Y8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="Z8" s="6">
-        <v>1.34</v>
+        <v>0.69</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="AG8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AH8" s="6">
-        <v>0.84</v>
+        <v>0.18</v>
       </c>
       <c r="AI8" s="6" t="s">
-        <v>18</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -1404,10 +1486,10 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="C11">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
       <c r="D11" s="6">
         <v>51</v>
@@ -1417,10 +1499,10 @@
         <v>23</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="K11">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="L11">
         <v>44</v>
@@ -1429,12 +1511,12 @@
         <v>23</v>
       </c>
       <c r="R11">
+        <v>0.87</v>
+      </c>
+      <c r="S11">
         <v>0.93</v>
       </c>
-      <c r="S11">
-        <v>0.96</v>
-      </c>
-      <c r="T11" s="6">
+      <c r="T11">
         <v>44</v>
       </c>
       <c r="U11" s="5"/>
@@ -1442,10 +1524,10 @@
         <v>23</v>
       </c>
       <c r="Z11">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AA11">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="AB11">
         <v>61</v>
@@ -1454,10 +1536,10 @@
         <v>23</v>
       </c>
       <c r="AH11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AI11">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="AJ11">
         <v>11</v>
@@ -1468,10 +1550,10 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D12">
         <v>107</v>
@@ -1480,10 +1562,10 @@
         <v>24</v>
       </c>
       <c r="J12">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K12">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="L12">
         <v>22</v>
@@ -1504,7 +1586,7 @@
         <v>24</v>
       </c>
       <c r="Z12">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AA12">
         <v>0.28999999999999998</v>
@@ -1519,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="AJ12">
         <v>10</v>
@@ -1530,10 +1612,10 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C13">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="D13">
         <v>506</v>
@@ -1557,7 +1639,7 @@
         <v>0.11</v>
       </c>
       <c r="S13">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="T13">
         <v>468</v>
@@ -1581,12 +1663,11 @@
         <v>0.04</v>
       </c>
       <c r="AI13">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AJ13">
         <v>95</v>
       </c>
-      <c r="AN13" s="10"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
@@ -1638,6 +1719,7 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
       <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
@@ -1660,7 +1742,7 @@
         <v>31</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
@@ -1682,7 +1764,7 @@
         <v>31</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10" t="s">
@@ -1704,7 +1786,7 @@
         <v>31</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10" t="s">
@@ -1726,7 +1808,7 @@
         <v>31</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10" t="s">
@@ -1748,1604 +1830,3341 @@
         <v>31</v>
       </c>
       <c r="AN15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>32</v>
+      <c r="A16" s="27" t="s">
+        <v>194</v>
       </c>
       <c r="B16">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="D16">
-        <v>-0.48</v>
+        <v>-0.65</v>
       </c>
       <c r="E16">
-        <v>0.63</v>
-      </c>
-      <c r="I16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16">
-        <v>-0.01</v>
+        <v>0.52</v>
+      </c>
+      <c r="F16">
+        <v>44</v>
+      </c>
+      <c r="G16">
+        <v>106</v>
+      </c>
+      <c r="H16" s="6">
+        <v>345</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16" s="29">
+        <v>-0.03</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16">
-        <v>-0.06</v>
-      </c>
-      <c r="M16">
+        <v>188</v>
+      </c>
+      <c r="L16" s="29">
+        <v>-0.15</v>
+      </c>
+      <c r="M16" s="29">
+        <v>0.88</v>
+      </c>
+      <c r="N16">
+        <v>43</v>
+      </c>
+      <c r="O16">
+        <v>22</v>
+      </c>
+      <c r="P16" s="6">
+        <v>495</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="R16">
+        <v>0.2</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="T16">
+        <v>1.36</v>
+      </c>
+      <c r="U16">
+        <v>0.17</v>
+      </c>
+      <c r="V16">
+        <v>42</v>
+      </c>
+      <c r="W16">
+        <v>39</v>
+      </c>
+      <c r="X16">
+        <v>424</v>
+      </c>
+      <c r="Y16" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>48</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>38</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>489</v>
+      </c>
+      <c r="AG16" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH16" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="AI16" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ16" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="AK16" s="29">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AL16" s="6">
+        <v>10</v>
+      </c>
+      <c r="AM16" s="6">
+        <v>9</v>
+      </c>
+      <c r="AN16" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="14">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="14">
+        <v>-1.03</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="16">
+        <v>13</v>
+      </c>
+      <c r="G17" s="16">
+        <v>10</v>
+      </c>
+      <c r="H17" s="14">
+        <v>161</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N17" s="14">
+        <v>3</v>
+      </c>
+      <c r="O17" s="16">
+        <v>3</v>
+      </c>
+      <c r="P17" s="14">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="R17" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="T17" s="16">
+        <v>1.26</v>
+      </c>
+      <c r="U17" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="V17" s="16">
+        <v>5</v>
+      </c>
+      <c r="W17" s="16">
+        <v>5</v>
+      </c>
+      <c r="X17" s="16">
+        <v>44</v>
+      </c>
+      <c r="Y17" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="AA17" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>19</v>
+      </c>
+      <c r="AE17" s="14">
+        <v>18</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>211</v>
+      </c>
+      <c r="AG17" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH17" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="AI17" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ17" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK17" s="16">
         <v>0.95</v>
       </c>
-      <c r="Q16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16">
-        <v>0.04</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="T16">
-        <v>0.25</v>
-      </c>
-      <c r="U16">
-        <v>0.81</v>
-      </c>
-      <c r="Y16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z16" s="6">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="AA16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB16" s="6">
-        <v>-0.66</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="AD16" s="6"/>
-      <c r="AG16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH16">
-        <v>-0.04</v>
-      </c>
-      <c r="AI16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ16">
-        <v>-0.21</v>
-      </c>
-      <c r="AK16">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="6">
-        <v>-0.11</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="6">
-        <v>-0.73</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.46</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17">
-        <v>-0.01</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17">
-        <v>-0.05</v>
-      </c>
-      <c r="M17">
-        <v>0.96</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R17" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="T17" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="U17" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z17" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="AA17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB17" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AC17" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AG17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH17">
-        <v>-0.13</v>
-      </c>
-      <c r="AI17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ17">
-        <v>-0.79</v>
-      </c>
-      <c r="AK17">
-        <v>0.43</v>
+      <c r="AL17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18">
-        <v>-0.11</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18">
-        <v>-0.82</v>
-      </c>
-      <c r="E18">
-        <v>0.41</v>
-      </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18">
-        <v>-0.11</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18">
-        <v>-0.54</v>
-      </c>
-      <c r="M18">
-        <v>0.59</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>44</v>
-      </c>
-      <c r="R18" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="T18">
-        <v>1.47</v>
-      </c>
-      <c r="U18">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Y18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z18" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="AA18" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB18" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="AC18" s="6">
-        <v>0.36</v>
-      </c>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AG18" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH18">
-        <v>0.09</v>
-      </c>
-      <c r="AI18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ18">
-        <v>0.66</v>
-      </c>
-      <c r="AK18">
-        <v>0.51</v>
+      <c r="A18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG18" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>3748.98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>988.39</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>1268.8399999999999</v>
+      </c>
+      <c r="S19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z19">
+        <v>1086.8499999999999</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH19">
+        <v>56.97</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20">
+        <v>0.7</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z20">
+        <v>0.92</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0.01</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>51</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23">
+        <v>0.01</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="L23">
+        <v>44</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23">
+        <v>0.05</v>
+      </c>
+      <c r="S23">
+        <v>0.21</v>
+      </c>
+      <c r="T23">
+        <v>44</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z23">
+        <v>0.04</v>
+      </c>
+      <c r="AA23">
+        <v>0.19</v>
+      </c>
+      <c r="AB23">
+        <v>61</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="AJ23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0.36</v>
+      </c>
+      <c r="C24">
+        <v>0.6</v>
+      </c>
+      <c r="D24">
+        <v>107</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1E-3</v>
+      </c>
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>2E-3</v>
+      </c>
+      <c r="T24">
+        <v>41</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z24">
+        <v>0.04</v>
+      </c>
+      <c r="AA24">
+        <v>0.19</v>
+      </c>
+      <c r="AB24">
+        <v>45</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH24">
+        <v>2E-3</v>
+      </c>
+      <c r="AI24">
+        <v>0.04</v>
+      </c>
+      <c r="AJ24">
+        <v>10</v>
+      </c>
+      <c r="AK24" s="5"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0.4</v>
+      </c>
+      <c r="C25">
+        <v>0.63</v>
+      </c>
+      <c r="D25">
+        <v>506</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25">
+        <v>0.1</v>
+      </c>
+      <c r="K25">
+        <v>0.32</v>
+      </c>
+      <c r="L25">
+        <v>502</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S25">
+        <v>0.26</v>
+      </c>
+      <c r="T25">
+        <v>468</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z25">
+        <v>0.03</v>
+      </c>
+      <c r="AA25">
+        <v>0.18</v>
+      </c>
+      <c r="AB25">
+        <v>700</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>1E-3</v>
+      </c>
+      <c r="AJ25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X27" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF27" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN27" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="8">
+        <v>-0.15</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="8">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F28">
+        <v>44</v>
+      </c>
+      <c r="G28">
+        <v>106</v>
+      </c>
+      <c r="H28" s="6">
+        <v>345</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" s="27">
+        <v>-0.02</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" s="27">
+        <v>-0.65</v>
+      </c>
+      <c r="M28" s="27">
+        <v>0.52</v>
+      </c>
+      <c r="N28">
+        <v>43</v>
+      </c>
+      <c r="O28">
+        <v>22</v>
+      </c>
+      <c r="P28" s="6">
+        <v>495</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="R28">
+        <v>-0.03</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="T28">
+        <v>-0.83</v>
+      </c>
+      <c r="U28">
+        <v>0.41</v>
+      </c>
+      <c r="V28">
+        <v>42</v>
+      </c>
+      <c r="W28">
+        <v>39</v>
+      </c>
+      <c r="X28">
+        <v>424</v>
+      </c>
+      <c r="Y28" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z28" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="AA28" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB28" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="AC28" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="AD28" s="6">
+        <v>48</v>
+      </c>
+      <c r="AE28" s="6">
+        <v>38</v>
+      </c>
+      <c r="AF28" s="6">
+        <v>489</v>
+      </c>
+      <c r="AG28" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH28" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="AI28" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ28" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="AK28" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="AL28" s="6">
+        <v>10</v>
+      </c>
+      <c r="AM28" s="6">
+        <v>9</v>
+      </c>
+      <c r="AN28" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="14">
+        <v>-0.21</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="14">
+        <v>-0.77</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.44</v>
+      </c>
+      <c r="F29" s="16">
+        <v>13</v>
+      </c>
+      <c r="G29" s="16">
+        <v>10</v>
+      </c>
+      <c r="H29" s="14">
+        <v>161</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" s="14">
+        <v>-0.12</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="L29" s="14">
+        <v>-0.53</v>
+      </c>
+      <c r="M29" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="N29" s="14">
+        <v>3</v>
+      </c>
+      <c r="O29" s="16">
+        <v>3</v>
+      </c>
+      <c r="P29" s="14">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="R29" s="16">
+        <v>-0.11</v>
+      </c>
+      <c r="S29" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="T29" s="16">
+        <v>-1.02</v>
+      </c>
+      <c r="U29" s="16">
+        <v>0.31</v>
+      </c>
+      <c r="V29" s="16">
+        <v>5</v>
+      </c>
+      <c r="W29" s="16">
+        <v>5</v>
+      </c>
+      <c r="X29" s="16">
+        <v>44</v>
+      </c>
+      <c r="Y29" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z29" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AA29" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB29" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="AC29" s="16">
+        <v>0.98</v>
+      </c>
+      <c r="AD29" s="14">
+        <v>19</v>
+      </c>
+      <c r="AE29" s="14">
+        <v>18</v>
+      </c>
+      <c r="AF29" s="14">
+        <v>211</v>
+      </c>
+      <c r="AG29" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH29" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="AI29" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ29" s="16">
+        <v>-0.08</v>
+      </c>
+      <c r="AK29" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="AL29" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="Q30" s="29"/>
+    </row>
+    <row r="31" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG36" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>2637.43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>1785.25</v>
+      </c>
+      <c r="K37" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R37">
+        <v>2019.12</v>
+      </c>
+      <c r="S37" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z37">
+        <v>2208.5700000000002</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH37">
+        <v>138.6</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2.41</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="6">
+        <v>1.41</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R38" s="5">
+        <v>2.94</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z38" s="6">
+        <v>1.34</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH38" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="AI38" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="8"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="10"/>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <v>0.72</v>
+      </c>
+      <c r="C41">
+        <v>0.85</v>
+      </c>
+      <c r="D41" s="6">
+        <v>51</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="I41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41">
+        <v>0.1</v>
+      </c>
+      <c r="K41">
+        <v>0.32</v>
+      </c>
+      <c r="L41">
+        <v>44</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>23</v>
+      </c>
+      <c r="R41">
+        <v>0.93</v>
+      </c>
+      <c r="S41">
+        <v>0.96</v>
+      </c>
+      <c r="T41" s="6">
+        <v>44</v>
+      </c>
+      <c r="U41" s="5"/>
+      <c r="Y41" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z41">
+        <v>0.12</v>
+      </c>
+      <c r="AA41">
+        <v>0.35</v>
+      </c>
+      <c r="AB41">
+        <v>61</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH41">
+        <v>0.04</v>
+      </c>
+      <c r="AI41">
+        <v>0.19</v>
+      </c>
+      <c r="AJ41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42">
+        <v>1E-4</v>
+      </c>
+      <c r="C42">
+        <v>0.01</v>
+      </c>
+      <c r="D42">
+        <v>107</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42">
+        <v>0.06</v>
+      </c>
+      <c r="K42">
+        <v>0.25</v>
+      </c>
+      <c r="L42">
+        <v>22</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0.01</v>
+      </c>
+      <c r="T42">
+        <v>41</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z42">
+        <v>0.08</v>
+      </c>
+      <c r="AA42">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AB42">
+        <v>45</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>1E-3</v>
+      </c>
+      <c r="AJ42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43">
+        <v>0.11</v>
+      </c>
+      <c r="C43">
+        <v>0.33</v>
+      </c>
+      <c r="D43">
+        <v>506</v>
+      </c>
+      <c r="I43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L43">
+        <v>502</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>25</v>
+      </c>
+      <c r="R43">
+        <v>0.11</v>
+      </c>
+      <c r="S43">
+        <v>0.32</v>
+      </c>
+      <c r="T43">
+        <v>468</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z43">
+        <v>0.15</v>
+      </c>
+      <c r="AA43">
+        <v>0.39</v>
+      </c>
+      <c r="AB43">
+        <v>700</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH43">
+        <v>0.04</v>
+      </c>
+      <c r="AI43">
+        <v>0.2</v>
+      </c>
+      <c r="AJ43">
+        <v>95</v>
+      </c>
+      <c r="AN43" s="10"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="8"/>
+      <c r="AL44" s="8"/>
+      <c r="AM44" s="8"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X45" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA45" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF45" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI45" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN45" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46">
+        <v>-0.48</v>
+      </c>
+      <c r="E46">
+        <v>0.63</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46">
+        <v>-0.01</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46">
+        <v>-0.06</v>
+      </c>
+      <c r="M46">
+        <v>0.95</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>32</v>
+      </c>
+      <c r="R46">
+        <v>0.04</v>
+      </c>
+      <c r="S46" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="T46">
+        <v>0.25</v>
+      </c>
+      <c r="U46">
+        <v>0.81</v>
+      </c>
+      <c r="Y46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z46" s="6">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AA46" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB46" s="6">
+        <v>-0.66</v>
+      </c>
+      <c r="AC46" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="AD46" s="6"/>
+      <c r="AG46" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH46">
+        <v>-0.04</v>
+      </c>
+      <c r="AI46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ46">
+        <v>-0.21</v>
+      </c>
+      <c r="AK46">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="6">
+        <v>-0.11</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="6">
+        <v>-0.73</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="I47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47">
+        <v>-0.01</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L47">
+        <v>-0.05</v>
+      </c>
+      <c r="M47">
+        <v>0.96</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R47" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="S47" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T47" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U47" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z47" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="AA47" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB47" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AC47" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AG47" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH47">
+        <v>-0.13</v>
+      </c>
+      <c r="AI47" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ47">
+        <v>-0.79</v>
+      </c>
+      <c r="AK47">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>-0.11</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <v>-0.82</v>
+      </c>
+      <c r="E48">
+        <v>0.41</v>
+      </c>
+      <c r="I48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48">
+        <v>-0.11</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L48">
+        <v>-0.54</v>
+      </c>
+      <c r="M48">
+        <v>0.59</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>44</v>
+      </c>
+      <c r="R48" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="S48" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="T48">
+        <v>1.47</v>
+      </c>
+      <c r="U48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z48" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="AA48" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB48" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="AC48" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AG48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH48">
+        <v>0.09</v>
+      </c>
+      <c r="AI48" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ48">
+        <v>0.66</v>
+      </c>
+      <c r="AK48">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B49" s="6">
         <v>0.11</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D49" s="6">
         <v>0.82</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E49" s="6">
         <v>0.41</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="I19" s="6" t="s">
+      <c r="F49" s="6"/>
+      <c r="I49" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J49" s="6">
         <v>0.04</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K49" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L49" s="6">
         <v>0.19</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M49" s="6">
         <v>0.85</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="Q19" t="s">
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="Q49" t="s">
         <v>50</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R49" s="6">
         <v>0.08</v>
       </c>
-      <c r="S19" s="12" t="s">
+      <c r="S49" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="T19">
+      <c r="T49">
         <v>0.45</v>
       </c>
-      <c r="U19">
+      <c r="U49">
         <v>0.65</v>
       </c>
-      <c r="Y19" s="6" t="s">
+      <c r="Y49" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Z49" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AA19" s="12" t="s">
+      <c r="AA49" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB49" s="6">
         <v>0.33</v>
       </c>
-      <c r="AC19" s="6">
+      <c r="AC49" s="6">
         <v>0.74</v>
       </c>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AG19" s="5" t="s">
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AG49" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AH19" s="5">
+      <c r="AH49" s="5">
         <v>0.24</v>
       </c>
-      <c r="AI19" s="13" t="s">
+      <c r="AI49" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AJ19" s="5">
+      <c r="AJ49" s="5">
         <v>2.0099999999999998</v>
       </c>
-      <c r="AK19" s="5">
+      <c r="AK49" s="5">
         <v>0.05</v>
       </c>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B50" s="5">
         <v>-0.46</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D50" s="5">
         <v>-2</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E50" s="5">
         <v>0.05</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="I20" s="6" t="s">
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="I50" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J50" s="6">
         <v>-0.15</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K50" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L50" s="6">
         <v>-0.74</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M50" s="6">
         <v>0.46</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="Q20" t="s">
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="Q50" t="s">
         <v>56</v>
       </c>
-      <c r="R20">
+      <c r="R50">
         <v>0.27</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="S50" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="T20">
+      <c r="T50">
         <v>1.21</v>
       </c>
-      <c r="U20">
+      <c r="U50">
         <v>0.23</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Y50" t="s">
         <v>56</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="Z50" s="6">
         <v>0.1</v>
       </c>
-      <c r="AA20" s="12" t="s">
+      <c r="AA50" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AB50" s="6">
         <v>0.47</v>
       </c>
-      <c r="AC20" s="6">
+      <c r="AC50" s="6">
         <v>0.64</v>
       </c>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AG20" t="s">
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AG50" t="s">
         <v>56</v>
       </c>
-      <c r="AH20">
+      <c r="AH50">
         <v>0.01</v>
       </c>
-      <c r="AI20" s="11" t="s">
+      <c r="AI50" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ50">
         <v>0.03</v>
       </c>
-      <c r="AK20">
+      <c r="AK50">
         <v>0.98</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="51" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B51" s="14">
         <v>-0.06</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D51" s="14">
         <v>-0.73</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E51" s="14">
         <v>0.47</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14" t="s">
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J51" s="14">
         <v>0.17</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K51" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L51" s="14">
         <v>0.9</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M51" s="14">
         <v>0.37</v>
       </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="14" t="s">
+      <c r="N51" s="14"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="R21" s="16">
+      <c r="R51" s="16">
         <v>0.01</v>
       </c>
-      <c r="S21" s="17" t="s">
+      <c r="S51" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="T21" s="16">
+      <c r="T51" s="16">
         <v>0.12</v>
       </c>
-      <c r="U21" s="16">
+      <c r="U51" s="16">
         <v>0.91</v>
       </c>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="14" t="s">
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="Z21" s="14">
+      <c r="Z51" s="14">
         <v>-0.11</v>
       </c>
-      <c r="AA21" s="15" t="s">
+      <c r="AA51" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AB21" s="14">
+      <c r="AB51" s="14">
         <v>-1.07</v>
       </c>
-      <c r="AC21" s="14">
+      <c r="AC51" s="14">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="14" t="s">
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="16"/>
+      <c r="AF51" s="16"/>
+      <c r="AG51" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AH21" s="16">
+      <c r="AH51" s="16">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="AI21" s="17" t="s">
+      <c r="AI51" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AJ21" s="16">
+      <c r="AJ51" s="16">
         <v>-0.2</v>
       </c>
-      <c r="AK21" s="16">
+      <c r="AK51" s="16">
         <v>0.84</v>
       </c>
-      <c r="AL21" s="16"/>
-      <c r="AM21" s="16"/>
-      <c r="AN21" s="16"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="AL51" s="16"/>
+      <c r="AM51" s="16"/>
+      <c r="AN51" s="16"/>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q52" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Y22" s="5" t="s">
+      <c r="Y52" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AG22" s="5" t="s">
+      <c r="AG52" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B23">
+      <c r="B53">
         <v>3617.92</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C53" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J23">
+      <c r="J53">
         <v>965.42</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K53" t="s">
         <v>11</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="Q53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R23">
+      <c r="R53">
         <v>1268.0899999999999</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S53" t="s">
         <v>11</v>
       </c>
-      <c r="Y23" s="6" t="s">
+      <c r="Y53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Z23">
+      <c r="Z53">
         <v>1072.93</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AA53" t="s">
         <v>11</v>
       </c>
-      <c r="AG23" s="6" t="s">
+      <c r="AG53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AH23">
+      <c r="AH53">
         <v>49.65</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AI53" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B54" s="6">
         <v>1.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J24">
+      <c r="J54">
         <v>1.45</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K54" t="s">
         <v>71</v>
       </c>
-      <c r="Q24" s="5" t="s">
+      <c r="Q54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R54" s="5">
         <v>1.93</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="S54" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="Y24" s="6" t="s">
+      <c r="Y54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Z24">
+      <c r="Z54">
         <v>0.49</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AA54" t="s">
         <v>73</v>
       </c>
-      <c r="AG24" s="6" t="s">
+      <c r="AG54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AH24">
+      <c r="AH54">
         <v>1.28</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AI54" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="7" t="s">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="7" t="s">
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="7" t="s">
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="7" t="s">
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
-      <c r="AM25" s="8"/>
-      <c r="AN25" s="8"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10" t="s">
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
+      <c r="AM55" s="8"/>
+      <c r="AN55" s="8"/>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D56" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10" t="s">
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L56" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="10" t="s">
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="10" t="s">
+      <c r="S56" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T26" s="10" t="s">
+      <c r="T56" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="10" t="s">
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AA26" s="10" t="s">
+      <c r="AA56" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AB26" s="10" t="s">
+      <c r="AB56" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="10" t="s">
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="9"/>
+      <c r="AH56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AI26" s="10" t="s">
+      <c r="AI56" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AJ26" s="10" t="s">
+      <c r="AJ56" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="AK56" s="10"/>
+      <c r="AL56" s="10"/>
+      <c r="AM56" s="10"/>
+      <c r="AN56" s="10"/>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>23</v>
       </c>
-      <c r="B27">
+      <c r="B57">
         <v>0.31</v>
       </c>
-      <c r="C27">
+      <c r="C57">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D57" s="6">
         <v>51</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I57" t="s">
         <v>23</v>
       </c>
-      <c r="J27">
+      <c r="J57">
         <v>0.01</v>
       </c>
-      <c r="K27">
+      <c r="K57">
         <v>0.11</v>
       </c>
-      <c r="L27">
+      <c r="L57">
         <v>44</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q57" t="s">
         <v>23</v>
       </c>
-      <c r="R27">
+      <c r="R57">
         <v>0.05</v>
       </c>
-      <c r="S27">
+      <c r="S57">
         <v>0.23</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T57" s="6">
         <v>44</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Y57" t="s">
         <v>23</v>
       </c>
-      <c r="Z27">
+      <c r="Z57">
         <v>0.04</v>
       </c>
-      <c r="AA27">
+      <c r="AA57">
         <v>0.2</v>
       </c>
-      <c r="AB27">
+      <c r="AB57">
         <v>61</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AG57" t="s">
         <v>23</v>
       </c>
-      <c r="AH27">
+      <c r="AH57">
         <v>0</v>
       </c>
-      <c r="AI27">
+      <c r="AI57">
         <v>1E-3</v>
       </c>
-      <c r="AJ27">
+      <c r="AJ57">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>24</v>
       </c>
-      <c r="B28">
+      <c r="B58">
         <v>1E-3</v>
       </c>
-      <c r="C28">
+      <c r="C58">
         <v>0.02</v>
       </c>
-      <c r="D28">
+      <c r="D58">
         <v>107</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I58" t="s">
         <v>24</v>
       </c>
-      <c r="J28">
+      <c r="J58">
         <v>0</v>
       </c>
-      <c r="K28">
+      <c r="K58">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L28">
+      <c r="L58">
         <v>22</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q58" t="s">
         <v>24</v>
       </c>
-      <c r="R28">
+      <c r="R58">
         <v>0</v>
       </c>
-      <c r="S28">
+      <c r="S58">
         <v>2E-3</v>
       </c>
-      <c r="T28">
+      <c r="T58">
         <v>41</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Y58" t="s">
         <v>24</v>
       </c>
-      <c r="Z28">
+      <c r="Z58">
         <v>0.04</v>
       </c>
-      <c r="AA28">
+      <c r="AA58">
         <v>0.19</v>
       </c>
-      <c r="AB28">
+      <c r="AB58">
         <v>45</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AG58" t="s">
         <v>24</v>
       </c>
-      <c r="AH28">
+      <c r="AH58">
         <v>0</v>
       </c>
-      <c r="AI28">
+      <c r="AI58">
         <v>1E-3</v>
       </c>
-      <c r="AJ28">
+      <c r="AJ58">
         <v>10</v>
       </c>
-      <c r="AK28" s="5"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="AK58" s="5"/>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>25</v>
       </c>
-      <c r="B29">
+      <c r="B59">
         <v>0.38</v>
       </c>
-      <c r="C29">
+      <c r="C59">
         <v>0.62</v>
       </c>
-      <c r="D29">
+      <c r="D59">
         <v>506</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I59" t="s">
         <v>25</v>
       </c>
-      <c r="J29">
+      <c r="J59">
         <v>0.1</v>
       </c>
-      <c r="K29">
+      <c r="K59">
         <v>0.32</v>
       </c>
-      <c r="L29">
+      <c r="L59">
         <v>502</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q59" t="s">
         <v>25</v>
       </c>
-      <c r="R29">
+      <c r="R59">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S29">
+      <c r="S59">
         <v>0.26</v>
       </c>
-      <c r="T29">
+      <c r="T59">
         <v>468</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Y59" t="s">
         <v>25</v>
       </c>
-      <c r="Z29">
+      <c r="Z59">
         <v>0.03</v>
       </c>
-      <c r="AA29">
+      <c r="AA59">
         <v>0.18</v>
       </c>
-      <c r="AB29">
+      <c r="AB59">
         <v>700</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AG59" t="s">
         <v>25</v>
       </c>
-      <c r="AH29">
+      <c r="AH59">
         <v>0</v>
       </c>
-      <c r="AI29">
+      <c r="AI59">
         <v>0</v>
       </c>
-      <c r="AJ29">
+      <c r="AJ59">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="7" t="s">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="7" t="s">
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="7" t="s">
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-      <c r="AG30" s="7" t="s">
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AH30" s="8"/>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
-      <c r="AK30" s="8"/>
-      <c r="AL30" s="8"/>
-      <c r="AM30" s="8"/>
-      <c r="AN30" s="8"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10" t="s">
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
+      <c r="AM60" s="8"/>
+      <c r="AN60" s="8"/>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D61" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E61" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F61" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G61" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10" t="s">
+      <c r="H61" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K61" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L61" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M31" s="10" t="s">
+      <c r="M61" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N31" s="10" t="s">
+      <c r="N61" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O31" s="10" t="s">
+      <c r="O61" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P31" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10" t="s">
+      <c r="P61" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="10" t="s">
+      <c r="S61" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="9" t="s">
+      <c r="T61" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="U31" s="10" t="s">
+      <c r="U61" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="V31" s="10" t="s">
+      <c r="V61" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="W31" s="10" t="s">
+      <c r="W61" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X31" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10" t="s">
+      <c r="X61" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AA31" s="10" t="s">
+      <c r="AA61" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AB31" s="9" t="s">
+      <c r="AB61" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AC31" s="10" t="s">
+      <c r="AC61" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AD31" s="10" t="s">
+      <c r="AD61" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AE31" s="10" t="s">
+      <c r="AE61" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AF31" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="10" t="s">
+      <c r="AF61" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG61" s="10"/>
+      <c r="AH61" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AI31" s="10" t="s">
+      <c r="AI61" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AJ31" s="9" t="s">
+      <c r="AJ61" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AK31" s="10" t="s">
+      <c r="AK61" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AL31" s="10" t="s">
+      <c r="AL61" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AM31" s="10" t="s">
+      <c r="AM61" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AN31" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="AN61" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B62" s="8">
         <v>0.02</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C62" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D62" s="8">
         <v>0.11</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E62" s="8">
         <v>0.91</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I62" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J62" s="8">
         <v>-0.02</v>
       </c>
-      <c r="K32" s="18" t="s">
+      <c r="K62" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L62" s="8">
         <v>-0.33</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M62" s="8">
         <v>0.74</v>
       </c>
-      <c r="Q32" s="19" t="s">
+      <c r="Q62" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="R32" s="19">
+      <c r="R62" s="19">
         <v>-0.13</v>
       </c>
-      <c r="S32" s="20" t="s">
+      <c r="S62" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="T32" s="19">
+      <c r="T62" s="19">
         <v>-2.33</v>
       </c>
-      <c r="U32" s="19">
+      <c r="U62" s="19">
         <v>0.02</v>
       </c>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="8" t="s">
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Z32" s="8">
+      <c r="Z62" s="8">
         <v>0.13</v>
       </c>
-      <c r="AA32" s="18" t="s">
+      <c r="AA62" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="AB32" s="8">
+      <c r="AB62" s="8">
         <v>0.94</v>
       </c>
-      <c r="AC32" s="8">
+      <c r="AC62" s="8">
         <v>0.35</v>
       </c>
-      <c r="AD32" s="6"/>
-      <c r="AG32" s="8" t="s">
+      <c r="AD62" s="6"/>
+      <c r="AG62" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH32" s="8">
+      <c r="AH62" s="8">
         <v>-0.1</v>
       </c>
-      <c r="AI32" s="18" t="s">
+      <c r="AI62" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="AJ32" s="8">
+      <c r="AJ62" s="8">
         <v>-0.69</v>
       </c>
-      <c r="AK32" s="8">
+      <c r="AK62" s="8">
         <v>0.49</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A63" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B63" s="21">
         <v>-0.1</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C63" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D63" s="21">
         <v>-0.62</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E63" s="21">
         <v>0.53</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="I33" s="23" t="s">
+      <c r="F63" s="6"/>
+      <c r="I63" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J63" s="23">
         <v>-0.13</v>
       </c>
-      <c r="K33" s="24" t="s">
+      <c r="K63" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="23">
+      <c r="L63" s="23">
         <v>-2.0299999999999998</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M63" s="23">
         <v>0.04</v>
       </c>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="25" t="s">
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="R33" s="21">
+      <c r="R63" s="21">
         <v>-0.05</v>
       </c>
-      <c r="S33" s="22" t="s">
+      <c r="S63" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="T33" s="25">
+      <c r="T63" s="25">
         <v>-0.49</v>
       </c>
-      <c r="U33" s="25">
+      <c r="U63" s="25">
         <v>0.62</v>
       </c>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="25" t="s">
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="Z33" s="25">
+      <c r="Z63" s="25">
         <v>0.13</v>
       </c>
-      <c r="AA33" s="26" t="s">
+      <c r="AA63" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="AB33" s="25">
+      <c r="AB63" s="25">
         <v>0.89</v>
       </c>
-      <c r="AC33" s="25">
+      <c r="AC63" s="25">
         <v>0.38</v>
       </c>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AG33" s="23" t="s">
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
+      <c r="AG63" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AH33" s="23">
+      <c r="AH63" s="23">
         <v>0.16</v>
       </c>
-      <c r="AI33" s="24" t="s">
+      <c r="AI63" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AJ33" s="23">
+      <c r="AJ63" s="23">
         <v>1.89</v>
       </c>
-      <c r="AK33" s="23">
+      <c r="AK63" s="23">
         <v>0.06</v>
       </c>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="AL63" s="5"/>
+      <c r="AM63" s="5"/>
+      <c r="AN63" s="5"/>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B64" s="21">
         <v>0.02</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C64" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D64" s="21">
         <v>0.13</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E64" s="21">
         <v>0.89</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I64" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J64" s="21">
         <v>-2E-3</v>
       </c>
-      <c r="K34" s="22" t="s">
+      <c r="K64" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L64" s="21">
         <v>-0.04</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M64" s="21">
         <v>0.97</v>
       </c>
-      <c r="Q34" s="25" t="s">
+      <c r="Q64" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="R34" s="21">
+      <c r="R64" s="21">
         <v>0.02</v>
       </c>
-      <c r="S34" s="22" t="s">
+      <c r="S64" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="T34" s="25">
+      <c r="T64" s="25">
         <v>0.35</v>
       </c>
-      <c r="U34" s="25">
+      <c r="U64" s="25">
         <v>0.73</v>
       </c>
-      <c r="Y34" s="25" t="s">
+      <c r="Y64" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="Z34" s="25">
+      <c r="Z64" s="25">
         <v>0.06</v>
       </c>
-      <c r="AA34" s="26" t="s">
+      <c r="AA64" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="AB34" s="25">
+      <c r="AB64" s="25">
         <v>0.49</v>
       </c>
-      <c r="AC34" s="25">
+      <c r="AC64" s="25">
         <v>0.63</v>
       </c>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-      <c r="AG34" s="25" t="s">
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AG64" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AH34" s="25">
+      <c r="AH64" s="25">
         <v>0.09</v>
       </c>
-      <c r="AI34" s="26" t="s">
+      <c r="AI64" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="AJ34" s="25">
+      <c r="AJ64" s="25">
         <v>1.1299999999999999</v>
       </c>
-      <c r="AK34" s="25">
+      <c r="AK64" s="25">
         <v>0.26</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A65" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B65" s="23">
         <v>-0.32</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C65" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D65" s="23">
         <v>-2.38</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E65" s="23">
         <v>0.02</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="I35" s="21" t="s">
+      <c r="F65" s="6"/>
+      <c r="I65" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J65" s="21">
         <v>-0.03</v>
       </c>
-      <c r="K35" s="22" t="s">
+      <c r="K65" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L65" s="21">
         <v>-0.49</v>
       </c>
-      <c r="M35" s="21">
+      <c r="M65" s="21">
         <v>0.63</v>
       </c>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="Q35" s="25" t="s">
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="Q65" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="R35" s="21">
+      <c r="R65" s="21">
         <v>0.1</v>
       </c>
-      <c r="S35" s="22" t="s">
+      <c r="S65" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="T35" s="25">
+      <c r="T65" s="25">
         <v>1.21</v>
       </c>
-      <c r="U35" s="25">
+      <c r="U65" s="25">
         <v>0.23</v>
       </c>
-      <c r="Y35" s="25" t="s">
+      <c r="Y65" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="Z35" s="25">
+      <c r="Z65" s="25">
         <v>0.09</v>
       </c>
-      <c r="AA35" s="26" t="s">
+      <c r="AA65" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="AB35" s="25">
+      <c r="AB65" s="25">
         <v>0.68</v>
       </c>
-      <c r="AC35" s="25">
+      <c r="AC65" s="25">
         <v>0.5</v>
       </c>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AG35" s="21" t="s">
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+      <c r="AG65" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AH35" s="21">
+      <c r="AH65" s="21">
         <v>-0.12</v>
       </c>
-      <c r="AI35" s="22" t="s">
+      <c r="AI65" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="AJ35" s="21">
+      <c r="AJ65" s="21">
         <v>-1.52</v>
       </c>
-      <c r="AK35" s="21">
+      <c r="AK65" s="21">
         <v>0.13</v>
       </c>
-      <c r="AL35" s="6"/>
-      <c r="AM35" s="6"/>
-      <c r="AN35" s="6"/>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+      <c r="AL65" s="6"/>
+      <c r="AM65" s="6"/>
+      <c r="AN65" s="6"/>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B66" s="21">
         <v>0.08</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C66" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D66" s="21">
         <v>0.33</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E66" s="21">
         <v>0.74</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="I36" s="23" t="s">
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="I66" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J66" s="23">
         <v>0.17</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K66" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="L36" s="23">
+      <c r="L66" s="23">
         <v>1.9</v>
       </c>
-      <c r="M36" s="23">
+      <c r="M66" s="23">
         <v>0.06</v>
       </c>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="21" t="s">
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="R36" s="25">
+      <c r="R66" s="25">
         <v>0.15</v>
       </c>
-      <c r="S36" s="26" t="s">
+      <c r="S66" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="T36" s="25">
+      <c r="T66" s="25">
         <v>0.94</v>
       </c>
-      <c r="U36" s="25">
+      <c r="U66" s="25">
         <v>0.35</v>
       </c>
-      <c r="Y36" s="21" t="s">
+      <c r="Y66" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="Z36" s="25">
+      <c r="Z66" s="25">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AA36" s="26" t="s">
+      <c r="AA66" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="AB36" s="25">
+      <c r="AB66" s="25">
         <v>0.5</v>
       </c>
-      <c r="AC36" s="25">
+      <c r="AC66" s="25">
         <v>0.62</v>
       </c>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AG36" s="25" t="s">
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AG66" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="AH36" s="25">
+      <c r="AH66" s="25">
         <v>0.03</v>
       </c>
-      <c r="AI36" s="26" t="s">
+      <c r="AI66" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="AJ36" s="25">
+      <c r="AJ66" s="25">
         <v>0.11</v>
       </c>
-      <c r="AK36" s="25">
+      <c r="AK66" s="25">
         <v>0.91</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+    <row r="67" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B67" s="14">
         <v>0.03</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D67" s="14">
         <v>0.26</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E67" s="14">
         <v>0.8</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="14" t="s">
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J67" s="14">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="K67" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L67" s="14">
         <v>-0.33</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M67" s="14">
         <v>0.74</v>
       </c>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="14" t="s">
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="R37" s="16">
+      <c r="R67" s="16">
         <v>-0.08</v>
       </c>
-      <c r="S37" s="17" t="s">
+      <c r="S67" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="T37" s="16">
+      <c r="T67" s="16">
         <v>-0.75</v>
       </c>
-      <c r="U37" s="16">
+      <c r="U67" s="16">
         <v>0.45</v>
       </c>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="14" t="s">
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="Z37" s="16">
+      <c r="Z67" s="16">
         <v>-0.08</v>
       </c>
-      <c r="AA37" s="17" t="s">
+      <c r="AA67" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="AB37" s="16">
+      <c r="AB67" s="16">
         <v>-1.22</v>
       </c>
-      <c r="AC37" s="16">
+      <c r="AC67" s="16">
         <v>0.22</v>
       </c>
-      <c r="AD37" s="14"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
-      <c r="AG37" s="14" t="s">
+      <c r="AD67" s="14"/>
+      <c r="AE67" s="16"/>
+      <c r="AF67" s="16"/>
+      <c r="AG67" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AH37" s="16">
+      <c r="AH67" s="16">
         <v>-0.11</v>
       </c>
-      <c r="AI37" s="17" t="s">
+      <c r="AI67" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="AJ37" s="16">
+      <c r="AJ67" s="16">
         <v>-0.54</v>
       </c>
-      <c r="AK37" s="16">
+      <c r="AK67" s="16">
         <v>0.59</v>
       </c>
-      <c r="AL37" s="16"/>
-      <c r="AM37" s="16"/>
-      <c r="AN37" s="16"/>
+      <c r="AL67" s="16"/>
+      <c r="AM67" s="16"/>
+      <c r="AN67" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3356,8 +5175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46B4CE2-FDF2-D946-A9CE-F47AE9C974AB}">
   <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL37" sqref="AL37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3371,13 +5190,13 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
@@ -3501,7 +5320,7 @@
         <v>149.51</v>
       </c>
       <c r="AI7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -3512,7 +5331,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>13</v>
@@ -3521,7 +5340,7 @@
         <v>1.47</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>13</v>
@@ -3530,7 +5349,7 @@
         <v>1.21</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y8" s="6" t="s">
         <v>13</v>
@@ -3539,7 +5358,7 @@
         <v>1.37</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG8" s="6" t="s">
         <v>13</v>
@@ -3548,7 +5367,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="AI8" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -3936,7 +5755,7 @@
         <v>31</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
@@ -3958,7 +5777,7 @@
         <v>31</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10" t="s">
@@ -3980,7 +5799,7 @@
         <v>31</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10" t="s">
@@ -4002,7 +5821,7 @@
         <v>31</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10" t="s">
@@ -4024,18 +5843,18 @@
         <v>31</v>
       </c>
       <c r="AN15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16">
         <v>-0.16</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16">
         <v>-1.06</v>
@@ -4053,13 +5872,13 @@
         <v>281</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J16">
         <v>-0.11</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L16">
         <v>-0.61</v>
@@ -4077,13 +5896,13 @@
         <v>192</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R16">
         <v>0.1</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T16">
         <v>0.49</v>
@@ -4101,13 +5920,13 @@
         <v>194</v>
       </c>
       <c r="Y16" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z16" s="6">
         <v>0.17</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB16" s="6">
         <v>1.1200000000000001</v>
@@ -4125,13 +5944,13 @@
         <v>186</v>
       </c>
       <c r="AG16" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AH16">
         <v>0.05</v>
       </c>
       <c r="AI16" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AJ16">
         <v>0.56000000000000005</v>
@@ -4151,13 +5970,13 @@
     </row>
     <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="14">
         <v>0.04</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="14">
         <v>0.17</v>
@@ -4175,13 +5994,13 @@
         <v>225</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J17" s="14">
         <v>0.03</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L17" s="14">
         <v>0.14000000000000001</v>
@@ -4199,13 +6018,13 @@
         <v>310</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R17" s="16">
         <v>0.32</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T17" s="16">
         <v>1.48</v>
@@ -4223,13 +6042,13 @@
         <v>274</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z17" s="14">
         <v>0.01</v>
       </c>
       <c r="AA17" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB17" s="14">
         <v>0.08</v>
@@ -4247,13 +6066,13 @@
         <v>514</v>
       </c>
       <c r="AG17" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH17" s="16">
         <v>0.1</v>
       </c>
       <c r="AI17" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ17" s="16">
         <v>0.67</v>
@@ -4343,7 +6162,7 @@
         <v>0.39</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>13</v>
@@ -4352,7 +6171,7 @@
         <v>2.59</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>13</v>
@@ -4361,7 +6180,7 @@
         <v>0.84</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y20" s="6" t="s">
         <v>13</v>
@@ -4370,7 +6189,7 @@
         <v>0.5</v>
       </c>
       <c r="AA20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG20" s="6" t="s">
         <v>13</v>
@@ -4379,7 +6198,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AI20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -4766,7 +6585,7 @@
         <v>31</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10" t="s">
@@ -4788,7 +6607,7 @@
         <v>31</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q27" s="10"/>
       <c r="R27" s="10" t="s">
@@ -4810,7 +6629,7 @@
         <v>31</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10" t="s">
@@ -4832,7 +6651,7 @@
         <v>31</v>
       </c>
       <c r="AF27" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AG27" s="10"/>
       <c r="AH27" s="10" t="s">
@@ -4854,18 +6673,18 @@
         <v>31</v>
       </c>
       <c r="AN27" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="8">
         <v>-0.12</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" s="8">
         <v>-0.47</v>
@@ -4883,13 +6702,13 @@
         <v>281</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J28" s="19">
         <v>-0.1</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L28" s="19">
         <v>-2.12</v>
@@ -4907,13 +6726,13 @@
         <v>192</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R28" s="27">
         <v>-1E-3</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T28" s="27">
         <v>-0.01</v>
@@ -4931,13 +6750,13 @@
         <v>194</v>
       </c>
       <c r="Y28" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z28" s="8">
         <v>0.1</v>
       </c>
       <c r="AA28" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB28" s="8">
         <v>0.66</v>
@@ -4955,7 +6774,7 @@
         <v>186</v>
       </c>
       <c r="AG28" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AH28" s="8">
         <v>0.02</v>
@@ -4981,13 +6800,13 @@
     </row>
     <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="14">
         <v>-0.25</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="14">
         <v>-0.83</v>
@@ -5005,13 +6824,13 @@
         <v>225</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J29" s="14">
         <v>0.03</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L29" s="14">
         <v>0.68</v>
@@ -5029,13 +6848,13 @@
         <v>310</v>
       </c>
       <c r="Q29" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R29" s="14">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T29" s="14">
         <v>-1.29</v>
@@ -5053,13 +6872,13 @@
         <v>274</v>
       </c>
       <c r="Y29" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z29" s="16">
         <v>0.03</v>
       </c>
       <c r="AA29" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB29" s="16">
         <v>0.17</v>
@@ -5077,13 +6896,13 @@
         <v>514</v>
       </c>
       <c r="AG29" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH29" s="16">
         <v>0.05</v>
       </c>
       <c r="AI29" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ29" s="16">
         <v>0.47</v>
@@ -5110,21 +6929,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FBA234-D4FE-CE44-A5C8-7BF7641E4438}">
   <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AP27" sqref="AP27"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
@@ -5248,7 +7067,7 @@
         <v>145.94999999999999</v>
       </c>
       <c r="AI7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -5259,7 +7078,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>13</v>
@@ -5268,7 +7087,7 @@
         <v>0.92</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>13</v>
@@ -5277,7 +7096,7 @@
         <v>1.04</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y8" s="5" t="s">
         <v>13</v>
@@ -5286,7 +7105,7 @@
         <v>3.84</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AG8" s="6" t="s">
         <v>13</v>
@@ -5295,7 +7114,7 @@
         <v>1.8</v>
       </c>
       <c r="AI8" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -5683,7 +7502,7 @@
         <v>31</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
@@ -5705,7 +7524,7 @@
         <v>31</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10" t="s">
@@ -5727,7 +7546,7 @@
         <v>31</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10" t="s">
@@ -5749,7 +7568,7 @@
         <v>31</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10" t="s">
@@ -5771,18 +7590,18 @@
         <v>31</v>
       </c>
       <c r="AN15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B16">
         <v>-0.1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D16">
         <v>-0.67</v>
@@ -5800,13 +7619,13 @@
         <v>242</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J16">
         <v>-0.16</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L16">
         <v>-0.82</v>
@@ -5824,13 +7643,13 @@
         <v>68</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R16">
         <v>0.26</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T16">
         <v>1.29</v>
@@ -5848,13 +7667,13 @@
         <v>14</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z16" s="5">
         <v>0.27</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AB16" s="5">
         <v>1.85</v>
@@ -5872,13 +7691,13 @@
         <v>120</v>
       </c>
       <c r="AG16" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AH16">
         <v>-0.36</v>
       </c>
       <c r="AI16" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AJ16">
         <v>-1.44</v>
@@ -5898,13 +7717,13 @@
     </row>
     <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B17" s="14">
         <v>-0.09</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17" s="14">
         <v>-0.56000000000000005</v>
@@ -5922,13 +7741,13 @@
         <v>264</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J17" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L17" s="14">
         <v>0.45</v>
@@ -5946,13 +7765,13 @@
         <v>434</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R17" s="16">
         <v>0.2</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T17" s="16">
         <v>1.37</v>
@@ -5970,13 +7789,13 @@
         <v>454</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z17" s="14">
         <v>-0.06</v>
       </c>
       <c r="AA17" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AB17" s="14">
         <v>-0.42</v>
@@ -5994,13 +7813,13 @@
         <v>580</v>
       </c>
       <c r="AG17" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AH17" s="16">
         <v>0.12</v>
       </c>
       <c r="AI17" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AJ17" s="16">
         <v>0.87</v>
@@ -6099,7 +7918,7 @@
         <v>0.71</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>13</v>
@@ -6108,7 +7927,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y20" s="6" t="s">
         <v>13</v>
@@ -6117,7 +7936,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="AA20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AG20" s="6" t="s">
         <v>13</v>
@@ -6126,7 +7945,7 @@
         <v>0.16</v>
       </c>
       <c r="AI20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -6513,7 +8332,7 @@
         <v>31</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10" t="s">
@@ -6535,7 +8354,7 @@
         <v>31</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q27" s="10"/>
       <c r="R27" s="10" t="s">
@@ -6557,7 +8376,7 @@
         <v>31</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10" t="s">
@@ -6579,7 +8398,7 @@
         <v>31</v>
       </c>
       <c r="AF27" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AG27" s="10"/>
       <c r="AH27" s="10" t="s">
@@ -6601,18 +8420,18 @@
         <v>31</v>
       </c>
       <c r="AN27" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B28" s="8">
         <v>-0.16</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="8">
         <v>-0.63</v>
@@ -6630,13 +8449,13 @@
         <v>242</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J28" s="27">
         <v>-0.1</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L28" s="27">
         <v>-1.1499999999999999</v>
@@ -6654,13 +8473,13 @@
         <v>68</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R28" s="27">
         <v>-0.1</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T28" s="27">
         <v>-0.8</v>
@@ -6678,13 +8497,13 @@
         <v>14</v>
       </c>
       <c r="Y28" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z28" s="8">
         <v>0.11</v>
       </c>
       <c r="AA28" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AB28" s="8">
         <v>0.76</v>
@@ -6702,13 +8521,13 @@
         <v>120</v>
       </c>
       <c r="AG28" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AH28" s="8">
         <v>-0.02</v>
       </c>
       <c r="AI28" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AJ28" s="8">
         <v>-0.12</v>
@@ -6728,13 +8547,13 @@
     </row>
     <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B29" s="14">
         <v>-0.17</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D29" s="14">
         <v>-0.61</v>
@@ -6752,13 +8571,13 @@
         <v>264</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J29" s="14">
         <v>-0.01</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L29" s="14">
         <v>-0.33</v>
@@ -6776,13 +8595,13 @@
         <v>434</v>
       </c>
       <c r="Q29" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R29" s="14">
         <v>-0.04</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="T29" s="14">
         <v>-0.92</v>
@@ -6800,13 +8619,13 @@
         <v>454</v>
       </c>
       <c r="Y29" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z29" s="16">
         <v>0.02</v>
       </c>
       <c r="AA29" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AB29" s="16">
         <v>0.11</v>
@@ -6824,13 +8643,13 @@
         <v>580</v>
       </c>
       <c r="AG29" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AH29" s="16">
         <v>0.03</v>
       </c>
       <c r="AI29" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AJ29" s="16">
         <v>0.55000000000000004</v>
@@ -6857,9 +8676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FBAE46-A889-CF41-B93C-72B0F1546B62}">
   <dimension ref="A1:AN30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6872,13 +8689,13 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
@@ -6981,7 +8798,7 @@
         <v>10</v>
       </c>
       <c r="R7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y7" s="6" t="s">
         <v>10</v>
@@ -6999,7 +8816,7 @@
         <v>145.94999999999999</v>
       </c>
       <c r="AI7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -7010,7 +8827,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>13</v>
@@ -7019,13 +8836,13 @@
         <v>0.01</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y8" s="5" t="s">
         <v>13</v>
@@ -7034,7 +8851,7 @@
         <v>7.38</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AG8" s="6" t="s">
         <v>13</v>
@@ -7043,7 +8860,7 @@
         <v>1.8</v>
       </c>
       <c r="AI8" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -7200,13 +9017,13 @@
         <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="U11" s="5"/>
       <c r="Y11" t="s">
@@ -7263,13 +9080,13 @@
         <v>24</v>
       </c>
       <c r="R12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y12" t="s">
         <v>24</v>
@@ -7325,13 +9142,13 @@
         <v>25</v>
       </c>
       <c r="R13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y13" t="s">
         <v>25</v>
@@ -7431,7 +9248,7 @@
         <v>31</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10" t="s">
@@ -7453,7 +9270,7 @@
         <v>31</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10" t="s">
@@ -7475,7 +9292,7 @@
         <v>31</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10" t="s">
@@ -7497,7 +9314,7 @@
         <v>31</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10" t="s">
@@ -7519,18 +9336,18 @@
         <v>31</v>
       </c>
       <c r="AN15" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B16">
         <v>0.02</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D16">
         <v>0.14000000000000001</v>
@@ -7548,13 +9365,13 @@
         <v>301</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J16" s="29">
         <v>-0.02</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L16" s="29">
         <v>-0.11</v>
@@ -7572,37 +9389,37 @@
         <v>444</v>
       </c>
       <c r="Q16" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="R16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="U16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="V16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="X16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y16" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Z16" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AB16" s="6">
         <v>0.13</v>
@@ -7620,13 +9437,13 @@
         <v>602</v>
       </c>
       <c r="AG16" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AH16" s="29">
         <v>0.12</v>
       </c>
       <c r="AI16" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AJ16" s="29">
         <v>0.87</v>
@@ -7646,13 +9463,13 @@
     </row>
     <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B17" s="14">
         <v>-0.3</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D17" s="14">
         <v>-1.5</v>
@@ -7670,13 +9487,13 @@
         <v>205</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J17" s="14">
         <v>0.01</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L17" s="14">
         <v>0.04</v>
@@ -7694,37 +9511,37 @@
         <v>58</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="V17" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="W17" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="X17" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Z17" s="30">
         <v>0.43</v>
       </c>
       <c r="AA17" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AB17" s="30">
         <v>3.83</v>
@@ -7742,13 +9559,13 @@
         <v>98</v>
       </c>
       <c r="AG17" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AH17" s="16">
         <v>-0.36</v>
       </c>
       <c r="AI17" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AJ17" s="16">
         <v>-1.44</v>
@@ -7806,7 +9623,7 @@
         <v>10</v>
       </c>
       <c r="R19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y19" s="6" t="s">
         <v>10</v>
@@ -7835,7 +9652,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>13</v>
@@ -7844,13 +9661,13 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S20" s="6"/>
       <c r="Y20" s="6" t="s">
@@ -7860,7 +9677,7 @@
         <v>0.48</v>
       </c>
       <c r="AA20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AG20" s="6" t="s">
         <v>13</v>
@@ -7869,7 +9686,7 @@
         <v>0.16</v>
       </c>
       <c r="AI20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -8025,13 +9842,13 @@
         <v>23</v>
       </c>
       <c r="R23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y23" t="s">
         <v>23</v>
@@ -8087,13 +9904,13 @@
         <v>24</v>
       </c>
       <c r="R24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y24" t="s">
         <v>24</v>
@@ -8150,13 +9967,13 @@
         <v>25</v>
       </c>
       <c r="R25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y25" t="s">
         <v>25</v>
@@ -8256,7 +10073,7 @@
         <v>31</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10" t="s">
@@ -8278,7 +10095,7 @@
         <v>31</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q27" s="10"/>
       <c r="R27" s="10" t="s">
@@ -8300,7 +10117,7 @@
         <v>31</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10" t="s">
@@ -8322,7 +10139,7 @@
         <v>31</v>
       </c>
       <c r="AF27" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AG27" s="10"/>
       <c r="AH27" s="10" t="s">
@@ -8344,18 +10161,18 @@
         <v>31</v>
       </c>
       <c r="AN27" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B28" s="8">
         <v>0.02</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D28" s="8">
         <v>0.22</v>
@@ -8373,13 +10190,13 @@
         <v>301</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J28" s="27">
         <v>-0.02</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L28" s="27">
         <v>-0.56999999999999995</v>
@@ -8397,37 +10214,37 @@
         <v>444</v>
       </c>
       <c r="Q28" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="R28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="U28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="V28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="W28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="X28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y28" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Z28" s="8">
         <v>0.04</v>
       </c>
       <c r="AA28" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AB28" s="8">
         <v>0.28000000000000003</v>
@@ -8445,13 +10262,13 @@
         <v>602</v>
       </c>
       <c r="AG28" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AH28" s="8">
         <v>0.03</v>
       </c>
       <c r="AI28" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AJ28" s="8">
         <v>0.55000000000000004</v>
@@ -8471,13 +10288,13 @@
     </row>
     <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B29" s="14">
         <v>-0.22</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D29" s="14">
         <v>-1.47</v>
@@ -8495,13 +10312,13 @@
         <v>205</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J29" s="14">
         <v>-0.05</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L29" s="14">
         <v>-0.5</v>
@@ -8519,37 +10336,37 @@
         <v>58</v>
       </c>
       <c r="Q29" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="U29" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="V29" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="W29" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y29" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Z29" s="16">
         <v>0.12</v>
       </c>
       <c r="AA29" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AB29" s="16">
         <v>0.82</v>
@@ -8567,13 +10384,13 @@
         <v>98</v>
       </c>
       <c r="AG29" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AH29" s="16">
         <v>-0.02</v>
       </c>
       <c r="AI29" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AJ29" s="16">
         <v>-0.12</v>
@@ -8593,7 +10410,7 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="Q30" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/ms/Secondary model output 30-4-20.xlsx
+++ b/ms/Secondary model output 30-4-20.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A3F491-ACB6-EE42-A8CC-1A127293BC34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3972A65-FAE3-E44A-8502-C7432A07D836}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="38300" windowHeight="19860" xr2:uid="{CEA959A6-D841-5347-BF8F-13749A5754E5}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="38300" windowHeight="19820" xr2:uid="{CEA959A6-D841-5347-BF8F-13749A5754E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Secondary mods 1 - Age" sheetId="1" r:id="rId1"/>
-    <sheet name="Secondary mods 2 - Population" sheetId="2" r:id="rId2"/>
-    <sheet name="Secondary mods 3 - Environment" sheetId="3" r:id="rId3"/>
-    <sheet name="Secondary mods 4 - Study type" sheetId="4" r:id="rId4"/>
+    <sheet name="MLMR mod 3 - bird mating system" sheetId="5" r:id="rId1"/>
+    <sheet name="Secondary mods 1 - Age" sheetId="1" r:id="rId2"/>
+    <sheet name="Secondary mods 2 - Population" sheetId="2" r:id="rId3"/>
+    <sheet name="Secondary mods 3 - Environment" sheetId="3" r:id="rId4"/>
+    <sheet name="Secondary mods 4 - Study type" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="245">
   <si>
     <t>Random Effects Multilevel Models - Personality traits, taxonomic group and age (categorical mod, no interaction term)</t>
   </si>
@@ -691,6 +692,78 @@
   </si>
   <si>
     <t>-0.41, 0.38</t>
+  </si>
+  <si>
+    <t>Random Effects Multilevel Models - Mating system and birds (all personalities)</t>
+  </si>
+  <si>
+    <t>Because we really only have enough mating system data for birds, this model sees how mating system (simplified) moderates overall mean differences in personality and variability in personality</t>
+  </si>
+  <si>
+    <t>Important to note that each estimate here is the mean estimate</t>
+  </si>
+  <si>
+    <t>p=0.72</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Phylogeny</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>Pred. Interval</t>
+  </si>
+  <si>
+    <t>Monogamy</t>
+  </si>
+  <si>
+    <t>Multiple Mating</t>
+  </si>
+  <si>
+    <t>-0.44, 0.34</t>
+  </si>
+  <si>
+    <t>p=0.82</t>
+  </si>
+  <si>
+    <t>n = no. effects</t>
+  </si>
+  <si>
+    <t>-0.69, 0.36</t>
+  </si>
+  <si>
+    <t>k = no. studies (unique)</t>
+  </si>
+  <si>
+    <t>-0.75, 0.46</t>
+  </si>
+  <si>
+    <t>spp = no. unique species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Effects Multilevel Models - Mating system and boldness in birds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because we really only have enough mating system data for birds, this model sees how mating system (simplified) moderates mean differences in boldness </t>
+  </si>
+  <si>
+    <t>p=0.76</t>
+  </si>
+  <si>
+    <t>-0.73, 0.35</t>
+  </si>
+  <si>
+    <t>-0.73, 0.5</t>
+  </si>
+  <si>
+    <t>-0.03, 0.13</t>
+  </si>
+  <si>
+    <t>-0.03, 0.20</t>
   </si>
 </sst>
 </file>
@@ -813,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -846,6 +919,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1159,10 +1234,869 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9948B2D6-0D24-AC4F-B3C7-22D23935FFEB}">
+  <dimension ref="A1:K57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2763.92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>0.67</v>
+      </c>
+      <c r="C11">
+        <v>0.82</v>
+      </c>
+      <c r="D11" s="6">
+        <v>51</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>0.12</v>
+      </c>
+      <c r="C13">
+        <v>0.35</v>
+      </c>
+      <c r="D13">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16">
+        <v>-0.1</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16">
+        <v>-0.81</v>
+      </c>
+      <c r="F16">
+        <v>0.42</v>
+      </c>
+      <c r="G16" s="32">
+        <v>387</v>
+      </c>
+      <c r="H16" s="32">
+        <v>93</v>
+      </c>
+      <c r="I16" s="32">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="14">
+        <v>-0.05</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14">
+        <v>-0.24</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0.81</v>
+      </c>
+      <c r="G17" s="14">
+        <v>116</v>
+      </c>
+      <c r="H17" s="14">
+        <v>12</v>
+      </c>
+      <c r="I17" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>3768.99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0.01</v>
+      </c>
+      <c r="C23">
+        <v>0.12</v>
+      </c>
+      <c r="D23" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24">
+        <v>0.36</v>
+      </c>
+      <c r="C24">
+        <v>0.6</v>
+      </c>
+      <c r="D24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0.4</v>
+      </c>
+      <c r="C25">
+        <v>0.63</v>
+      </c>
+      <c r="D25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="8">
+        <v>-0.17</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="8">
+        <v>-0.63</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="G28" s="32">
+        <v>387</v>
+      </c>
+      <c r="H28" s="32">
+        <v>93</v>
+      </c>
+      <c r="I28" s="32">
+        <v>44</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="16">
+        <v>-0.15</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16">
+        <v>-0.48</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="G29" s="14">
+        <v>116</v>
+      </c>
+      <c r="H29" s="14">
+        <v>12</v>
+      </c>
+      <c r="I29" s="14">
+        <v>9</v>
+      </c>
+      <c r="K29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>1594.03</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>1.71</v>
+      </c>
+      <c r="C39">
+        <v>1.31</v>
+      </c>
+      <c r="D39" s="6">
+        <v>24</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D40">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C41">
+        <v>0.27</v>
+      </c>
+      <c r="D41">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44">
+        <v>-0.19</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44">
+        <v>-0.68</v>
+      </c>
+      <c r="F44">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="32">
+        <v>217</v>
+      </c>
+      <c r="H44" s="32">
+        <v>83</v>
+      </c>
+      <c r="I44" s="32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" s="14">
+        <v>-0.11</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="14">
+        <v>-0.36</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0.72</v>
+      </c>
+      <c r="G45" s="14">
+        <v>44</v>
+      </c>
+      <c r="H45" s="14">
+        <v>11</v>
+      </c>
+      <c r="I45" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>258.24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>1.49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D51" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D52">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1E-3</v>
+      </c>
+      <c r="D53">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="8">
+        <v>1.27</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="G56" s="32">
+        <v>217</v>
+      </c>
+      <c r="H56" s="32">
+        <v>83</v>
+      </c>
+      <c r="I56" s="32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="F57" s="16">
+        <v>0.16</v>
+      </c>
+      <c r="G57" s="14">
+        <v>44</v>
+      </c>
+      <c r="H57" s="14">
+        <v>11</v>
+      </c>
+      <c r="I57" s="14">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345FC792-B22C-5445-AAC6-18CE35CE0157}">
   <dimension ref="A1:AN67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
@@ -5171,7 +6105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46B4CE2-FDF2-D946-A9CE-F47AE9C974AB}">
   <dimension ref="A1:AN29"/>
   <sheetViews>
@@ -6925,7 +7859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FBA234-D4FE-CE44-A5C8-7BF7641E4438}">
   <dimension ref="A1:AN29"/>
   <sheetViews>
@@ -8672,7 +9606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FBAE46-A889-CF41-B93C-72B0F1546B62}">
   <dimension ref="A1:AN30"/>
   <sheetViews>

--- a/ms/Secondary model output 30-4-20.xlsx
+++ b/ms/Secondary model output 30-4-20.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3972A65-FAE3-E44A-8502-C7432A07D836}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC3F669-C9CF-CC4F-8332-F44F0631AEDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="38300" windowHeight="19820" xr2:uid="{CEA959A6-D841-5347-BF8F-13749A5754E5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38300" windowHeight="19820" xr2:uid="{CEA959A6-D841-5347-BF8F-13749A5754E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="MLMR mod 3 - bird mating system" sheetId="5" r:id="rId1"/>
+    <sheet name="MLMR mod 3 - Mating system" sheetId="5" r:id="rId1"/>
     <sheet name="Secondary mods 1 - Age" sheetId="1" r:id="rId2"/>
     <sheet name="Secondary mods 2 - Population" sheetId="2" r:id="rId3"/>
     <sheet name="Secondary mods 3 - Environment" sheetId="3" r:id="rId4"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="265">
   <si>
     <t>Random Effects Multilevel Models - Personality traits, taxonomic group and age (categorical mod, no interaction term)</t>
   </si>
@@ -694,12 +694,6 @@
     <t>-0.41, 0.38</t>
   </si>
   <si>
-    <t>Random Effects Multilevel Models - Mating system and birds (all personalities)</t>
-  </si>
-  <si>
-    <t>Because we really only have enough mating system data for birds, this model sees how mating system (simplified) moderates overall mean differences in personality and variability in personality</t>
-  </si>
-  <si>
     <t>Important to note that each estimate here is the mean estimate</t>
   </si>
   <si>
@@ -715,9 +709,6 @@
     <t>95% CI</t>
   </si>
   <si>
-    <t>Pred. Interval</t>
-  </si>
-  <si>
     <t>Monogamy</t>
   </si>
   <si>
@@ -764,6 +755,75 @@
   </si>
   <si>
     <t>-0.03, 0.20</t>
+  </si>
+  <si>
+    <t>Random Effects Multilevel Models - Mating system and personality</t>
+  </si>
+  <si>
+    <t>Because we really only have enough mating system data for birds, this model checks how mating system (simplified) moderates overall mean differences in personality and variability in personality</t>
+  </si>
+  <si>
+    <t>p=0.8</t>
+  </si>
+  <si>
+    <t>-0.33, 0.47</t>
+  </si>
+  <si>
+    <t>-0.36, 0.33</t>
+  </si>
+  <si>
+    <t>p=0.42</t>
+  </si>
+  <si>
+    <t>-0.35, 0.71</t>
+  </si>
+  <si>
+    <t>-0.10, 0.49</t>
+  </si>
+  <si>
+    <t>-0.56, 0.43</t>
+  </si>
+  <si>
+    <t>-0.34, 0.52</t>
+  </si>
+  <si>
+    <t>p=0.58</t>
+  </si>
+  <si>
+    <t>-0.39, 0.89</t>
+  </si>
+  <si>
+    <t>-0.38, 0.21</t>
+  </si>
+  <si>
+    <t>-0.21, 0.08</t>
+  </si>
+  <si>
+    <t>-0.07, 0.06</t>
+  </si>
+  <si>
+    <t>p=0.66</t>
+  </si>
+  <si>
+    <t>-0.38, 0.29</t>
+  </si>
+  <si>
+    <t>-0.13, 0.05</t>
+  </si>
+  <si>
+    <t>-0.25, 0.29</t>
+  </si>
+  <si>
+    <t>-0.15, 0.30</t>
+  </si>
+  <si>
+    <t>p=0.96</t>
+  </si>
+  <si>
+    <t>-0.55, 0.38</t>
+  </si>
+  <si>
+    <t>-0.18, 0.26</t>
   </si>
 </sst>
 </file>
@@ -1235,39 +1295,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9948B2D6-0D24-AC4F-B3C7-22D23935FFEB}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:AN60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1278,14 +1343,65 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -1295,8 +1411,44 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>1775.98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>1935.16</v>
+      </c>
+      <c r="S7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>2207.65</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH7">
+        <v>77.37</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1304,11 +1456,47 @@
         <v>0.33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8">
+        <v>0.88</v>
+      </c>
+      <c r="S8" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1319,9 +1507,48 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>20</v>
@@ -1330,15 +1557,70 @@
         <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" s="9"/>
+      <c r="J10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1352,10 +1634,59 @@
         <v>51</v>
       </c>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11">
+        <v>0.03</v>
+      </c>
+      <c r="K11">
+        <v>0.17</v>
+      </c>
+      <c r="L11">
+        <v>42</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11">
+        <v>0.9</v>
+      </c>
+      <c r="S11">
+        <v>0.95</v>
+      </c>
+      <c r="T11">
+        <v>43</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="Y11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z11">
+        <v>0.1</v>
+      </c>
+      <c r="AA11">
+        <v>0.32</v>
+      </c>
+      <c r="AB11">
+        <v>59</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH11">
+        <v>1E-3</v>
+      </c>
+      <c r="AI11">
+        <v>0.03</v>
+      </c>
+      <c r="AJ11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1366,8 +1697,56 @@
       <c r="D12">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12">
+        <v>0.05</v>
+      </c>
+      <c r="K12">
+        <v>0.22</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>35</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z12">
+        <v>0.12</v>
+      </c>
+      <c r="AA12">
+        <v>0.35</v>
+      </c>
+      <c r="AB12">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH12">
+        <v>0.06</v>
+      </c>
+      <c r="AI12">
+        <v>0.24</v>
+      </c>
+      <c r="AJ12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1380,8 +1759,56 @@
       <c r="D13">
         <v>503</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>0.16</v>
+      </c>
+      <c r="K13">
+        <v>0.4</v>
+      </c>
+      <c r="L13">
+        <v>488</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13">
+        <v>0.12</v>
+      </c>
+      <c r="S13">
+        <v>0.34</v>
+      </c>
+      <c r="T13">
+        <v>436</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z13">
+        <v>0.17</v>
+      </c>
+      <c r="AA13">
+        <v>0.41</v>
+      </c>
+      <c r="AB13">
+        <v>648</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH13">
+        <v>0.02</v>
+      </c>
+      <c r="AI13">
+        <v>0.15</v>
+      </c>
+      <c r="AJ13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -1392,38 +1819,162 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E15" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="E15" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="F15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="P15" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X15" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF15" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN15" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B16">
         <v>-0.1</v>
@@ -1431,56 +1982,258 @@
       <c r="C16" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16">
+        <v>-0.81</v>
+      </c>
       <c r="E16">
-        <v>-0.81</v>
-      </c>
-      <c r="F16">
         <v>0.42</v>
       </c>
+      <c r="F16" s="32">
+        <v>387</v>
+      </c>
       <c r="G16" s="32">
-        <v>387</v>
+        <v>93</v>
       </c>
       <c r="H16" s="32">
-        <v>93</v>
-      </c>
-      <c r="I16" s="32">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>226</v>
+      </c>
+      <c r="J16" s="29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="L16" s="29">
+        <v>0.36</v>
+      </c>
+      <c r="M16" s="29">
+        <v>0.72</v>
+      </c>
+      <c r="N16" s="29">
+        <v>65</v>
+      </c>
+      <c r="O16" s="29">
+        <v>5</v>
+      </c>
+      <c r="P16" s="29">
+        <v>8</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>226</v>
+      </c>
+      <c r="R16">
+        <v>0.18</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="T16">
+        <v>0.68</v>
+      </c>
+      <c r="U16">
+        <v>0.5</v>
+      </c>
+      <c r="V16">
+        <v>24</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>-0.27</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>109</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>8</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>9</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH16" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="AI16" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ16" s="29">
+        <v>0.77</v>
+      </c>
+      <c r="AK16" s="29">
+        <v>0.44</v>
+      </c>
+      <c r="AL16" s="29">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B17" s="14">
         <v>-0.05</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="15"/>
+        <v>228</v>
+      </c>
+      <c r="D17" s="14">
+        <v>-0.24</v>
+      </c>
       <c r="E17" s="14">
-        <v>-0.24</v>
+        <v>0.81</v>
       </c>
       <c r="F17" s="14">
-        <v>0.81</v>
+        <v>116</v>
       </c>
       <c r="G17" s="14">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="H17" s="14">
-        <v>12</v>
-      </c>
-      <c r="I17" s="14">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I17" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="J17" s="14">
+        <v>-0.02</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="L17" s="14">
+        <v>-0.1</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0.92</v>
+      </c>
+      <c r="N17" s="14">
+        <v>423</v>
+      </c>
+      <c r="O17" s="16">
+        <v>15</v>
+      </c>
+      <c r="P17" s="14">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="R17" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="T17" s="16">
+        <v>1.33</v>
+      </c>
+      <c r="U17" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="V17" s="16">
+        <v>412</v>
+      </c>
+      <c r="W17" s="16">
+        <v>33</v>
+      </c>
+      <c r="X17" s="16">
+        <v>41</v>
+      </c>
+      <c r="Y17" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="AA17" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>0.43</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>539</v>
+      </c>
+      <c r="AE17" s="14">
+        <v>33</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>52</v>
+      </c>
+      <c r="AG17" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH17" s="16">
+        <v>-0.08</v>
+      </c>
+      <c r="AI17" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ17" s="16">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="AK17" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AL17" s="14">
+        <v>53</v>
+      </c>
+      <c r="AM17" s="14">
+        <v>6</v>
+      </c>
+      <c r="AN17" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG18" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
@@ -1490,8 +2243,44 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>973.96</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>1125.44</v>
+      </c>
+      <c r="S19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z19">
+        <v>1015.04</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH19">
+        <v>36.46</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
@@ -1499,10 +2288,46 @@
         <v>0.2</v>
       </c>
       <c r="C20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20">
+        <v>0.42</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z20">
+        <v>0.35</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1513,9 +2338,48 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
         <v>20</v>
@@ -1524,15 +2388,70 @@
         <v>21</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I22" s="9"/>
+      <c r="J22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1545,10 +2464,58 @@
       <c r="D23" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23">
+        <v>0.01</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="L23">
+        <v>42</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23">
+        <v>0.05</v>
+      </c>
+      <c r="S23">
+        <v>0.22</v>
+      </c>
+      <c r="T23">
+        <v>43</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z23">
+        <v>0.04</v>
+      </c>
+      <c r="AA23">
+        <v>0.19</v>
+      </c>
+      <c r="AB23">
+        <v>59</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B24">
         <v>0.36</v>
@@ -1559,8 +2526,57 @@
       <c r="D24">
         <v>105</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>20</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>35</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z24">
+        <v>0.03</v>
+      </c>
+      <c r="AA24">
+        <v>0.18</v>
+      </c>
+      <c r="AB24">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH24">
+        <v>0.02</v>
+      </c>
+      <c r="AI24">
+        <v>0.15</v>
+      </c>
+      <c r="AJ24">
+        <v>7</v>
+      </c>
+      <c r="AK24" s="5"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1573,8 +2589,56 @@
       <c r="D25">
         <v>503</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25">
+        <v>0.1</v>
+      </c>
+      <c r="K25">
+        <v>0.32</v>
+      </c>
+      <c r="L25">
+        <v>488</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S25">
+        <v>0.27</v>
+      </c>
+      <c r="T25">
+        <v>436</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z25">
+        <v>0.03</v>
+      </c>
+      <c r="AA25">
+        <v>0.18</v>
+      </c>
+      <c r="AB25">
+        <v>648</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
@@ -1585,109 +2649,414 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="E27" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>29</v>
       </c>
+      <c r="F27" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="G27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="O27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="P27" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="K27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X27" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF27" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN27" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B28" s="8">
         <v>-0.17</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="D28" s="18"/>
+        <v>231</v>
+      </c>
+      <c r="D28" s="8">
+        <v>-0.63</v>
+      </c>
       <c r="E28" s="8">
-        <v>-0.63</v>
-      </c>
-      <c r="F28" s="8">
         <v>0.53</v>
       </c>
+      <c r="F28" s="32">
+        <v>387</v>
+      </c>
       <c r="G28" s="32">
-        <v>387</v>
+        <v>93</v>
       </c>
       <c r="H28" s="32">
-        <v>93</v>
-      </c>
-      <c r="I28" s="32">
         <v>44</v>
       </c>
-      <c r="K28" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>226</v>
+      </c>
+      <c r="J28" s="27">
+        <v>-0.06</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="L28" s="27">
+        <v>-0.85</v>
+      </c>
+      <c r="M28" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="N28" s="29">
+        <v>65</v>
+      </c>
+      <c r="O28" s="29">
+        <v>5</v>
+      </c>
+      <c r="P28" s="29">
+        <v>8</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>226</v>
+      </c>
+      <c r="R28">
+        <v>-0.05</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="T28">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="U28">
+        <v>0.78</v>
+      </c>
+      <c r="V28">
+        <v>24</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+      <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z28" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="AA28" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB28" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC28" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="AD28" s="6">
+        <v>109</v>
+      </c>
+      <c r="AE28" s="6">
+        <v>8</v>
+      </c>
+      <c r="AF28" s="6">
+        <v>9</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH28" s="8">
+        <v>-0.08</v>
+      </c>
+      <c r="AI28" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ28" s="8">
+        <v>-0.36</v>
+      </c>
+      <c r="AK28" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="AL28" s="29">
+        <v>2</v>
+      </c>
+      <c r="AM28" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B29" s="16">
         <v>-0.15</v>
       </c>
       <c r="C29" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29" s="16">
+        <v>-0.48</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="F29" s="14">
+        <v>116</v>
+      </c>
+      <c r="G29" s="14">
+        <v>12</v>
+      </c>
+      <c r="H29" s="14">
+        <v>9</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="J29" s="14">
+        <v>-0.01</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="L29" s="14">
+        <v>-0.22</v>
+      </c>
+      <c r="M29" s="14">
+        <v>0.83</v>
+      </c>
+      <c r="N29" s="14">
+        <v>423</v>
+      </c>
+      <c r="O29" s="16">
+        <v>15</v>
+      </c>
+      <c r="P29" s="14">
+        <v>34</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="R29" s="16">
+        <v>-0.04</v>
+      </c>
+      <c r="S29" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="T29" s="16">
+        <v>-0.89</v>
+      </c>
+      <c r="U29" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="V29" s="16">
+        <v>412</v>
+      </c>
+      <c r="W29" s="16">
+        <v>33</v>
+      </c>
+      <c r="X29" s="16">
+        <v>41</v>
+      </c>
+      <c r="Y29" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z29" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA29" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB29" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="AC29" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="AD29" s="14">
+        <v>539</v>
+      </c>
+      <c r="AE29" s="14">
+        <v>33</v>
+      </c>
+      <c r="AF29" s="14">
+        <v>52</v>
+      </c>
+      <c r="AG29" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH29" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="AI29" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ29" s="16">
+        <v>0.34</v>
+      </c>
+      <c r="AK29" s="16">
+        <v>0.73</v>
+      </c>
+      <c r="AL29" s="14">
+        <v>53</v>
+      </c>
+      <c r="AM29" s="14">
+        <v>6</v>
+      </c>
+      <c r="AN29" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>236</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="16">
-        <v>-0.48</v>
-      </c>
-      <c r="F29" s="16">
-        <v>0.63</v>
-      </c>
-      <c r="G29" s="14">
-        <v>116</v>
-      </c>
-      <c r="H29" s="14">
-        <v>12</v>
-      </c>
-      <c r="I29" s="14">
-        <v>9</v>
-      </c>
-      <c r="K29" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -1698,14 +3067,13 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>10</v>
       </c>
@@ -1716,7 +3084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>13</v>
       </c>
@@ -1724,11 +3092,11 @@
         <v>0.27</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>19</v>
       </c>
@@ -1739,9 +3107,8 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="10" t="s">
         <v>20</v>
@@ -1750,15 +3117,14 @@
         <v>21</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -1773,9 +3139,9 @@
       </c>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1787,7 +3153,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -1801,7 +3167,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>26</v>
       </c>
@@ -1812,95 +3178,89 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E43" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="E43" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="F43" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I43" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B44">
         <v>-0.19</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D44" s="11"/>
+        <v>238</v>
+      </c>
+      <c r="D44">
+        <v>-0.68</v>
+      </c>
       <c r="E44">
-        <v>-0.68</v>
-      </c>
-      <c r="F44">
         <v>0.5</v>
       </c>
+      <c r="F44" s="32">
+        <v>217</v>
+      </c>
       <c r="G44" s="32">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="H44" s="32">
-        <v>83</v>
-      </c>
-      <c r="I44" s="32">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B45" s="14">
         <v>-0.11</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D45" s="15"/>
+        <v>239</v>
+      </c>
+      <c r="D45" s="14">
+        <v>-0.36</v>
+      </c>
       <c r="E45" s="14">
-        <v>-0.36</v>
+        <v>0.72</v>
       </c>
       <c r="F45" s="14">
-        <v>0.72</v>
+        <v>44</v>
       </c>
       <c r="G45" s="14">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H45" s="14">
-        <v>11</v>
-      </c>
-      <c r="I45" s="14">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>10</v>
       </c>
@@ -1911,7 +3271,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -1922,7 +3282,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>19</v>
       </c>
@@ -1933,9 +3293,8 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
         <v>20</v>
@@ -1944,15 +3303,14 @@
         <v>21</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -1966,9 +3324,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B52">
         <v>5.0000000000000001E-3</v>
@@ -1980,7 +3338,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -1994,7 +3352,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
@@ -2005,86 +3363,95 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="E55" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F55" t="s">
+      <c r="E55" t="s">
         <v>29</v>
       </c>
+      <c r="F55" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="G55" s="10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B56" s="8">
         <v>0.05</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="D56" s="18"/>
+        <v>240</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1.27</v>
+      </c>
       <c r="E56" s="8">
-        <v>1.27</v>
-      </c>
-      <c r="F56" s="8">
         <v>0.21</v>
       </c>
+      <c r="F56" s="32">
+        <v>217</v>
+      </c>
       <c r="G56" s="32">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="H56" s="32">
-        <v>83</v>
-      </c>
-      <c r="I56" s="32">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B57" s="16">
         <v>0.08</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="D57" s="17"/>
+        <v>241</v>
+      </c>
+      <c r="D57" s="16">
+        <v>1.4</v>
+      </c>
       <c r="E57" s="16">
-        <v>1.4</v>
-      </c>
-      <c r="F57" s="16">
         <v>0.16</v>
       </c>
+      <c r="F57" s="14">
+        <v>44</v>
+      </c>
       <c r="G57" s="14">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H57" s="14">
-        <v>11</v>
-      </c>
-      <c r="I57" s="14">
         <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2097,7 +3464,7 @@
   <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AO29" sqref="AO29"/>
+      <selection activeCell="I5" sqref="I5:AN29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7863,7 +9230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FBA234-D4FE-CE44-A5C8-7BF7641E4438}">
   <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
